--- a/pred_ohlcv/54_21/2020-01-21 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>13000735.46337121</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -990,7 +990,7 @@
         <v>4471117.751589899</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4285089.019589899</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3544616.991589899</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4006423.819889899</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4873485.569989899</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4753507.963089899</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>8739748.254397864</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>8911959.814397862</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>9017926.691597862</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>9098425.583597863</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>9002707.995597864</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>8912753.132397864</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>8912753.132397864</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>8961610.696397863</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>8861888.188397864</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>8830249.320397863</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>8988844.152397864</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8904483.812897863</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>8952943.344897863</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>8812606.635697862</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>8895508.479697863</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>8793183.280697864</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>8753534.572697863</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>8829227.560697863</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>8865041.401497863</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>8865041.401497863</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>8769607.027297864</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>9730156.632697864</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>9580091.220197864</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>9451132.796197863</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>9600479.412197864</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>10087500.03869786</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>9995787.370697863</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>9885769.725797864</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10081793.88839786</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>9393701.517497864</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>9453308.394005483</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>9408119.005005483</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>9498229.705005482</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>9544286.285005482</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>9466991.329005482</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>9426541.637005482</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>9514273.415005483</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>9813285.997705482</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>9648449.199205482</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>9564746.371205483</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>9609369.276105482</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>9523123.011805482</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>9664408.686805483</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>9563084.210805483</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>9715271.170805484</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>9835418.770805484</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>9737298.230805485</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>10787214.6311592</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>10899409.8310592</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>11912039.10323398</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>12533123.2498053</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>10738740.81214134</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>10703097.02414134</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>10753959.50814134</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>10691883.24814134</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>11042013.72134134</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>11403274.67844134</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>11417224.09664134</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>12210198.59144134</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>11899197.36444134</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>11833946.68844134</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>11665728.42594134</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>11747028.30194134</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>11827311.41794134</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>11937533.06034134</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>12036288.69634134</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>11585928.53064134</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>11481891.29334134</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>11230227.13534134</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>10909941.84264134</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>12539054.29903372</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>12499405.59103372</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>12798424.08723372</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>12627527.62333372</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>11601370.64443372</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>11694310.50553372</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>11656168.70013371</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>11584480.63213371</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>11662576.57213371</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>11618922.94413371</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>11704227.74013371</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>11584504.66213371</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>11374541.21153371</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>11421900.13743371</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>11314167.78943371</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>11424691.28143371</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>11494364.58943371</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>11900204.16703371</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>11826914.13103371</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>11860923.91203371</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>11933412.96403371</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>11838924.73773371</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>11829967.59503371</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>12177676.36573371</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>12178114.16123371</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>12112032.98123371</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>12195735.80923371</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>12415136.28823371</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>12516460.76423371</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>12573731.12023371</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>12478814.51623371</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>12516861.25623371</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>12550914.22903371</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>12633015.08903371</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>12731135.62903371</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>12923551.30573371</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>12791061.56223371</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>12791061.56223371</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>12888212.91123371</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>13356468.95371672</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>13507053.94571672</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>13542697.73371672</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>13491835.24971672</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>12376746.39441672</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>12713643.55571672</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>12605707.91771672</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>12554044.44971672</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>12504783.93371672</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>12429891.92971672</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>12466336.70171672</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>12379029.44571672</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>12446099.42161672</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>12274461.71761672</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>12277136.36751672</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>12054683.50351672</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>11863013.56101672</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>11863013.56101672</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>11776957.52941672</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>11819669.82941672</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>11819669.82941672</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>11731021.09741672</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>11792296.37341672</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>11573124.95701672</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>11580872.30511672</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>11304165.41091672</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>11412671.42131672</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>11517199.83331672</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>11300449.58071672</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>11238647.13761672</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>11656626.59985737</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>11938102.73865737</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>12031417.37465737</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>11481428.96415737</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>12241053.75221672</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>12185385.36421672</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>12253068.51221672</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>12149341.08421672</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>12217825.21621672</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>12077272.99081672</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>12157771.88281672</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>11381533.25071672</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>11381533.25071672</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>11234675.68671672</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>11340410.86501672</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>11373737.21501672</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>11286029.46701672</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>11366627.60861672</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>11287704.80091672</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>11217875.98761672</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>11381912.76851672</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>11298730.92451672</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>11343433.02961672</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>11303784.32161672</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>11227811.33361672</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>11212214.28301672</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>11245002.99556476</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>11300882.99616372</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>11365969.30503197</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>12175878.48723197</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>12285346.80323197</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>11537734.60203197</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>11085732.38293197</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>10947618.35643197</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>10584870.66903197</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>10754903.65223197</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>10660249.52793197</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>11169263.15813197</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>11222580.46683197</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>11241628.09513197</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>11325446.26143197</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>10829909.18263197</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>10929240.70663197</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>10929240.70663197</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>10841961.37453197</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>11415859.60853197</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>11465255.12453197</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>11390363.12053197</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>11427197.93693197</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>11427197.93693197</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>10950466.61473197</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>10816898.58733197</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>10905807.81133197</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>10449286.47603197</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>10507640.65433197</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>10404714.21033197</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>10487650.21133197</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>10423170.99933197</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>10430872.60483197</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>10395483.51083197</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>10439836.16613197</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>10439836.16613197</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>10439836.16613197</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>10378560.89013197</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>11614017.58823197</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>11614017.58823197</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>11575169.86423197</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>11575772.20953197</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>11489100.21823197</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>11948250.21903197</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>12031692.55503197</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>11310292.95023197</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>11403607.58623197</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>11322307.71023197</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>11253022.59423197</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>11103665.19763197</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>12171987.06643197</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>11931414.29713197</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>11862930.16513197</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>12013588.71313197</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>12080561.62443197</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>12193499.68943197</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>12088035.30313197</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>12088443.80513197</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>11936256.84513197</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>11806396.52713197</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>11929521.17973197</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>11804866.87933197</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>11624192.04663197</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>11941908.40583197</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>11893448.87383197</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>11787318.49383197</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>11870220.33783197</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>11913072.98183197</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>11797731.28583197</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>11553526.09083197</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>11734696.64593197</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>12574703.86763197</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>12800430.97393197</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>12863508.21793197</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>13020665.22693197</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>13392537.40453197</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>13946980.94373197</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>13548534.32173197</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>13463229.52573197</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>13811183.96413197</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>14069248.57033197</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>13878698.03133197</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>13681455.96733197</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>13579732.47533197</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>13576232.47533197</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>13471400.88313197</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>13364907.66643197</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>13457216.95843197</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>13457216.95843197</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>13583099.97133197</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>13540617.58023197</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>13310373.93493197</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>13586160.09313197</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>13442855.18163197</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>11274208.16703197</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>10545774.95173197</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>9053195.720331969</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>9053195.720331969</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>8261341.566631969</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>7086742.771531969</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-23102264.68178171</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-28222144.8306817</v>
       </c>
       <c r="H1011">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-28267400.4266817</v>
       </c>
       <c r="H1012">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-28069364.90188171</v>
       </c>
       <c r="H1013">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-27961632.5538817</v>
       </c>
       <c r="H1014">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-28121829.35388171</v>
       </c>
       <c r="H1015">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-28399891.76768171</v>
       </c>
       <c r="H1016">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-28308179.09968171</v>
       </c>
       <c r="H1017">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-28381469.1356817</v>
       </c>
       <c r="H1018">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-28259050.8491817</v>
       </c>
       <c r="H1019">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-28186561.7971817</v>
       </c>
       <c r="H1020">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-28127689.4731817</v>
       </c>
       <c r="H1021">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-28043353.80528108</v>
       </c>
       <c r="H1022">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-28133464.50528108</v>
       </c>
       <c r="H1023">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-28180025.70528108</v>
       </c>
       <c r="H1024">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-28257320.66128108</v>
       </c>
       <c r="H1025">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-28129964.20528108</v>
       </c>
       <c r="H1026">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-27993661.5376817</v>
       </c>
       <c r="H1027">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-27896341.9816817</v>
       </c>
       <c r="H1028">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-27896341.9816817</v>
       </c>
       <c r="H1029">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-28453593.6334817</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-28465335.7239817</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-28270853.7994817</v>
       </c>
       <c r="H1067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-28945447.20228169</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-28829304.5222817</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-28754025.3180817</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-28754025.3180817</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-28754025.3180817</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-28754025.3180817</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-28746120.8869817</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-28986599.0914001</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-29119349.7544001</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-29119349.7544001</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-29119149.7544001</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-29574008.8695001</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-29620866.4335001</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-29521143.9255001</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-29489505.0575001</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-29932853.0641001</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-29932853.0641001</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-29647780.8924001</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-29599321.3604001</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-29599984.1074001</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-29493853.7274001</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-29410951.8834001</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-29493453.2354001</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-29417760.2474001</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-29502264.0594001</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-29411352.3754001</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-29478234.5394001</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-29371303.1754001</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-29434180.4194001</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-29487445.8554001</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-29415757.7874001</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-29493853.7274001</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-29364895.3034001</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-29245548.6874001</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-29048506.6234001</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-29048506.6234001</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-29108179.9314001</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-29038093.8314001</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-29394106.2179001</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-29467396.2539001</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-29390687.8729001</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-29399787.8729001</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-29573236.7065001</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-30336913.1779001</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-30413407.1499001</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-30510726.7059001</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-30470751.2532001</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-30512001.9292001</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-30418687.2932001</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-30569272.2852001</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-30509334.3538001</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-30688113.3278001</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-30460321.9194001</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-30291346.7998001</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-30200429.3517001</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-30119930.4597001</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-29879150.4757001</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-29626356.1824001</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-23579520.7875927</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-24088714.8203927</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-24418521.0500927</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-27329859.40259025</v>
       </c>
       <c r="H1213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-27370553.58659025</v>
       </c>
       <c r="H1215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-27300311.48659025</v>
       </c>
       <c r="H1216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-27392024.15459025</v>
       </c>
       <c r="H1217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-27491985.76189025</v>
       </c>
       <c r="H1218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-27371310.39209025</v>
       </c>
       <c r="H1219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-27298821.34009025</v>
       </c>
       <c r="H1220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-27239949.01609025</v>
       </c>
       <c r="H1221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-27284712.62809025</v>
       </c>
       <c r="H1222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-27284557.62809025</v>
       </c>
       <c r="H1223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-27374668.32809025</v>
       </c>
       <c r="H1224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-27420724.90809024</v>
       </c>
       <c r="H1225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-27296807.72299024</v>
       </c>
       <c r="H1226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-27256358.03099024</v>
       </c>
       <c r="H1227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-27169451.26699024</v>
       </c>
       <c r="H1228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-27343264.79499025</v>
       </c>
       <c r="H1229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-27409345.97499024</v>
       </c>
       <c r="H1230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-27299138.29099024</v>
       </c>
       <c r="H1231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-27299138.29099024</v>
       </c>
       <c r="H1232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>13000735.46337121</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -990,7 +990,7 @@
         <v>4471117.751589899</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4285089.019589899</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3544616.991589899</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4006423.819889899</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4873485.569989899</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4753507.963089899</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>8739748.254397864</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>8911959.814397862</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>9017926.691597862</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>9098425.583597863</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>9002707.995597864</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>8912753.132397864</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>8912753.132397864</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>8961610.696397863</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>8861888.188397864</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>8830249.320397863</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>8988844.152397864</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8904483.812897863</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>8952943.344897863</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>8812606.635697862</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>8895508.479697863</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>8793183.280697864</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>8753534.572697863</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>8829227.560697863</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>8865041.401497863</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>8865041.401497863</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>8769607.027297864</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>9730156.632697864</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>9580091.220197864</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>9451132.796197863</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>9600479.412197864</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>10087500.03869786</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>9995787.370697863</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>9885769.725797864</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10081793.88839786</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>9393701.517497864</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>9453308.394005483</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>9408119.005005483</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>9498229.705005482</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>9544286.285005482</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>9466991.329005482</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>9426541.637005482</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>9514273.415005483</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>9813285.997705482</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>9648449.199205482</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>9564746.371205483</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>9609369.276105482</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>9523123.011805482</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>9664408.686805483</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>9563084.210805483</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>9715271.170805484</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>9835418.770805484</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>9737298.230805485</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>10787214.6311592</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>10899409.8310592</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>11912039.10323398</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>12533123.2498053</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>12466626.07224012</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>10738740.81214134</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>10703097.02414134</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>10753959.50814134</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>10691883.24814134</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>10797568.84514134</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>10796727.81214134</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>11284437.36774134</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>11232773.89974134</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>11207142.41174134</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>11424154.91824134</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>11417224.09664134</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>12210198.59144134</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>11899197.36444134</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>11833946.68844134</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>11665728.42594134</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>11747028.30194134</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>11827311.41794134</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>11937533.06034134</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>12036288.69634134</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>11585928.53064134</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>11481891.29334134</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>11230227.13534134</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>10909941.84264134</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>12539054.29903372</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>12423712.60303372</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>12792699.26953372</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>12798424.08723372</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>12627527.62333372</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>11601370.64443372</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>11694310.50553372</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>11656168.70013371</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>11584480.63213371</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>11662576.57213371</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>11704227.74013371</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>11584504.66213371</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>11374541.21153371</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>11838924.73773371</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>12177676.36573371</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>12178114.16123371</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>12478814.51623371</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>12516861.25623371</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>12550914.22903371</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>12633015.08903371</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>12731135.62903371</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>12923551.30573371</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>12791061.56223371</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>12791061.56223371</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>12888212.91123371</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>13356468.95371672</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>13507053.94571672</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>13542697.73371672</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>13491835.24971672</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>12376746.39441672</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>12713643.55571672</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>12605707.91771672</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>12554044.44971672</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>12504783.93371672</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>12429891.92971672</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>12466336.70171672</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>12379029.44571672</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>12446099.42161672</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>12274461.71761672</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>12277136.36751672</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>12054683.50351672</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>11863013.56101672</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>11863013.56101672</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>11776957.52941672</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>11819669.82941672</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>11819669.82941672</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>11731021.09741672</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>11792296.37341672</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>11573124.95701672</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>11300449.58071672</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>11238647.13761672</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>11938102.73865737</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>12031417.37465737</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>11481428.96415737</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>12241053.75221672</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>12185385.36421672</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>12253068.51221672</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>12149341.08421672</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>12217825.21621672</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>12077272.99081672</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>12157771.88281672</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>11381533.25071672</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>11381533.25071672</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>11234675.68671672</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>11343433.02961672</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>11212214.28301672</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>11149838.02301672</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>12175878.48723197</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>12285346.80323197</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>11537734.60203197</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>11085732.38293197</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>10947618.35643197</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>10584870.66903197</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>10754903.65223197</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>10660249.52793197</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>11169263.15813197</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>11222580.46683197</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>11241628.09513197</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>11325446.26143197</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>10829909.18263197</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>10929240.70663197</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>10929240.70663197</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>10841961.37453197</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>11415859.60853197</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>11465255.12453197</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>11390363.12053197</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>11427197.93693197</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>11427197.93693197</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>10950466.61473197</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>10816898.58733197</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>10905807.81133197</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>10449286.47603197</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>10507640.65433197</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>10404714.21033197</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>10487650.21133197</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>10423170.99933197</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>10430872.60483197</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>10395483.51083197</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>10439836.16613197</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>10439836.16613197</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>10439836.16613197</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>10378560.89013197</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>11614017.58823197</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>11614017.58823197</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>11575169.86423197</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>11575772.20953197</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>11489100.21823197</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>11948250.21903197</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>12031692.55503197</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>11310292.95023197</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>11403607.58623197</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>11322307.71023197</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>11253022.59423197</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>11103665.19763197</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>12171987.06643197</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>11931414.29713197</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>11862930.16513197</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>12013588.71313197</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>12080561.62443197</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>12193499.68943197</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>12088035.30313197</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>12088443.80513197</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>11936256.84513197</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>11806396.52713197</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>11929521.17973197</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>11804866.87933197</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>11624192.04663197</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>11941908.40583197</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>11893448.87383197</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>11787318.49383197</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>11870220.33783197</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>11913072.98183197</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>11797731.28583197</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>11553526.09083197</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>11734696.64593197</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>12574703.86763197</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>12800430.97393197</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>12863508.21793197</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>13020665.22693197</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>13392537.40453197</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>13946980.94373197</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>13548534.32173197</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>13463229.52573197</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>13811183.96413197</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>14069248.57033197</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>13878698.03133197</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>13681455.96733197</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>13579732.47533197</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>13576232.47533197</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>13471400.88313197</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>13364907.66643197</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>13457216.95843197</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>13457216.95843197</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>13583099.97133197</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>13540617.58023197</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>13310373.93493197</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>13586160.09313197</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>13442855.18163197</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>11274208.16703197</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>10545774.95173197</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>9053195.720331969</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-23288542.59938171</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-23286490.08698171</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-23350969.29898171</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-23316126.49498171</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-23190773.41378171</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-23102264.68178171</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-23265665.41778171</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-23154801.22278171</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-23193648.94678171</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-23128368.75078171</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-23023840.33878171</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-28062036.13868171</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-28222144.8306817</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-28267400.4266817</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-28069364.90188171</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-27961632.5538817</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-28121829.35388171</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-28399891.76768171</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-28308179.09968171</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-28381469.1356817</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-28259050.8491817</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-28186561.7971817</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-28127689.4731817</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-28043353.80528108</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-28133464.50528108</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-28180025.70528108</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-28257320.66128108</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-28129964.20528108</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-27993661.5376817</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-27896341.9816817</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-27896341.9816817</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-27776579.1536817</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-27862684.9336817</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-27753996.6016817</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-27855321.0776817</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-27794012.7568817</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-27794012.7568817</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-28148748.2069817</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-28376254.6449817</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-28325392.1609817</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-28486389.9449817</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-28371048.2489817</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-28321787.7329817</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-28310500.9803817</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-28385392.9843817</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-28421837.7563817</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-28371621.2563817</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-28371466.2563817</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-28408712.0123817</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-28352242.6403817</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-28296600.7694817</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-28350667.1894817</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-28556647.8999817</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-28270853.7994817</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-29397337.6037001</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-23579520.7875927</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-24088714.8203927</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-24418521.0500927</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-27300311.48659025</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-27392024.15459025</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-27491985.76189025</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-27371310.39209025</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-27298821.34009025</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-27239949.01609025</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-27284712.62809025</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-27284557.62809025</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-27374668.32809025</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-27420724.90809024</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-27296807.72299024</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-27256358.03099024</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-27169451.26699024</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-27343264.79499025</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-27409345.97499024</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-27299138.29099024</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-27299138.29099024</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-27175513.69549024</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
